--- a/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 29,2</t>
+          <t>6,79; 29,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 17,66</t>
+          <t>3,37; 17,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,28; 70,33</t>
+          <t>56,76; 70,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 20,18</t>
+          <t>3,47; 18,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 23,24</t>
+          <t>5,01; 22,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,88; 72,89</t>
+          <t>62,87; 72,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 19,58</t>
+          <t>6,71; 19,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 18,52</t>
+          <t>5,86; 17,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,15; 69,99</t>
+          <t>61,99; 70,26</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 33,79</t>
+          <t>8,39; 34,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 18,83</t>
+          <t>3,83; 18,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,52; 94,67</t>
+          <t>66,41; 94,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,93</t>
+          <t>0,0; 19,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,9</t>
+          <t>0,0; 14,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,06; 75,99</t>
+          <t>66,69; 75,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,56</t>
+          <t>6,57; 24,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 15,86</t>
+          <t>2,7; 14,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,35; 91,0</t>
+          <t>68,55; 91,61</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 53,05</t>
+          <t>5,7; 52,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 35,52</t>
+          <t>6,52; 37,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,94; 68,05</t>
+          <t>51,51; 67,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,84</t>
+          <t>0,0; 34,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,84</t>
+          <t>0,0; 34,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,88; 79,7</t>
+          <t>65,5; 79,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 32,36</t>
+          <t>3,8; 34,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 24,86</t>
+          <t>5,41; 25,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,13; 71,34</t>
+          <t>59,8; 70,96</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,04</t>
+          <t>11,08; 28,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 16,85</t>
+          <t>6,36; 16,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,78; 90,35</t>
+          <t>63,56; 89,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,39</t>
+          <t>4,11; 15,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,11</t>
+          <t>4,29; 15,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,41; 73,6</t>
+          <t>67,69; 73,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,0</t>
+          <t>9,07; 18,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,84</t>
+          <t>6,65; 14,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,98; 86,09</t>
+          <t>66,88; 86,8</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7138</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4561</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89333</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6165</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7516</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>115858</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13303</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12077</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>205191</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3058; 13136</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1744; 9254</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79717; 98464</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2185; 11697</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3113; 14210</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>106830; 123933</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7249; 20698</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6668; 20226</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>192414; 218077</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9402</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7424</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>425270</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11412</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>585083</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4174; 17338</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2990; 14659</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>339094; 484205</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5995</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5229</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>148722; 169036</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5265; 19310</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3090; 16358</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>502878; 672095</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3107</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>74442</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>62335</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>831; 7718</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1886; 10943</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63742; 83807</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4294</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5489</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55785; 67638</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1027; 9377</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2440; 11641</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>124931; 148245</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19647</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>589045</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>338007</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>927052</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12122; 30912</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10104; 26414</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>492476; 694884</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4345; 16588</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4916; 17786</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>323638; 353144</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19516; 40442</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18172; 38491</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>837950; 1087480</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
